--- a/template Excel/HR/EmployeeError.xlsx
+++ b/template Excel/HR/EmployeeError.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8670E1-4F3B-4BEA-AD4B-3A3F1794ED41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BC625D-6635-451C-A0CE-ACA6401A0703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{562DA203-B99F-4F15-B5DC-9B233261B11E}"/>
   </bookViews>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve"> ErrorDate</t>
+    <t>EmployeeErrorId</t>
   </si>
   <si>
-    <t xml:space="preserve">EmployeeErrorId </t>
+    <t>EmployeeId</t>
   </si>
   <si>
-    <t xml:space="preserve"> EmployeeId</t>
+    <t>ErrorCodeId</t>
   </si>
   <si>
-    <t xml:space="preserve"> ErrorCodeId</t>
+    <t>ErrorDate</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,16 +441,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/template Excel/HR/EmployeeError.xlsx
+++ b/template Excel/HR/EmployeeError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BC625D-6635-451C-A0CE-ACA6401A0703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D51241E-D77A-481C-B614-D3F83A7B2F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{562DA203-B99F-4F15-B5DC-9B233261B11E}"/>
   </bookViews>
